--- a/Python_EV3/QR_Codes_Spuren.xlsx
+++ b/Python_EV3/QR_Codes_Spuren.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="FzSpuren" sheetId="1" r:id="rId1"/>
-    <sheet name="QR_Codes_IoT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2224,395 +2223,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="752475" y="190500"/>
-          <a:ext cx="2857500" cy="2857500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2059538" cy="374141"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Textfeld 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619125" y="2505075"/>
-          <a:ext cx="2059538" cy="374141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1800"/>
-            <a:t>192.168.107.250:81</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Grafik 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4572000" y="190500"/>
-          <a:ext cx="2857500" cy="2857500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Grafik 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="781050" y="3629025"/>
-          <a:ext cx="2857500" cy="2857500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Grafik 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4591050" y="3619500"/>
-          <a:ext cx="2857500" cy="2857500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2059538" cy="374141"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Textfeld 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3876675" y="2486025"/>
-          <a:ext cx="2059538" cy="374141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1800"/>
-            <a:t>192.168.107.251:81</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2059538" cy="374141"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Textfeld 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="590550" y="5400675"/>
-          <a:ext cx="2059538" cy="374141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1800"/>
-            <a:t>192.168.107.252:81</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2059538" cy="374141"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Textfeld 12"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3895725" y="5400675"/>
-          <a:ext cx="2059538" cy="374141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1800"/>
-            <a:t>192.168.107.253:81</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2905,7 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D22" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D22" workbookViewId="0">
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
@@ -2914,32 +2524,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K36" sqref="A1:K36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>